--- a/biology/Virologie/2011/2011.xlsx
+++ b/biology/Virologie/2011/2011.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le NeoCoV, Coronavirus Neoromicia/PML-PHE1/RSA/2011 ou Coronavirus Neoromicia/GrNC5/RSA/2012, est un coronavirus du genre Betacoronavirus et du sous-genre Merbecovirus appartenant à l'espèce MERSr-CoV[1]. Il infecte l'espèce de chauve-souris Neoromicia capensis chez qui il a été trouvé en 2011 en Afrique du Sud. Il est proche du merbécovirus PDF-2180-CoV qui infecte Pipisrellus hesperidus dans le sud de l'Ouganda.
-Il devient un sujet d'inquiétude en 2022 alors que des scientifiques de Wuhan alertent sur le fait qu'il suffirait d'une seule mutation pour que ce coronavirus puisse cibler — comme le SARS-CoV-2 — le récepteur ACE2 humain[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le NeoCoV, Coronavirus Neoromicia/PML-PHE1/RSA/2011 ou Coronavirus Neoromicia/GrNC5/RSA/2012, est un coronavirus du genre Betacoronavirus et du sous-genre Merbecovirus appartenant à l'espèce MERSr-CoV. Il infecte l'espèce de chauve-souris Neoromicia capensis chez qui il a été trouvé en 2011 en Afrique du Sud. Il est proche du merbécovirus PDF-2180-CoV qui infecte Pipisrellus hesperidus dans le sud de l'Ouganda.
+Il devient un sujet d'inquiétude en 2022 alors que des scientifiques de Wuhan alertent sur le fait qu'il suffirait d'une seule mutation pour que ce coronavirus puisse cibler — comme le SARS-CoV-2 — le récepteur ACE2 humain.
 </t>
         </is>
       </c>
